--- a/mapas_leaflet/Leaflet.xlsx
+++ b/mapas_leaflet/Leaflet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hector\Documents\GitHub\mapa_insumos\mapas_leaflet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BB5AA18-0D38-475D-8C9B-6D034A897F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A04297-7439-4D09-80CB-D9300AEACCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{84BEEEB0-8A06-4289-BCAC-3826B378C274}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{84BEEEB0-8A06-4289-BCAC-3826B378C274}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
   <si>
     <t>Tema</t>
   </si>
@@ -155,6 +155,153 @@
   </si>
   <si>
     <t>(Semanario) Fuente: J1</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/Incendios/ComunasAfectadas</t>
+  </si>
+  <si>
+    <t>Sin filtro</t>
+  </si>
+  <si>
+    <t>Mapa áreas protegidas</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/Incendios/incendios24h_v2?id=1</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/Incendios/incendios24h_v2_filtro?i=2021-12-01&amp;f=2022-01-05</t>
+  </si>
+  <si>
+    <t>Por semana, (Fecha inicial, fecha final)</t>
+  </si>
+  <si>
+    <t>Fuentes: J1, SUOIMI, MODIS</t>
+  </si>
+  <si>
+    <t>Incendio Timaukel</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/Incendios/IncendioTimaukel</t>
+  </si>
+  <si>
+    <t>Puntos zona afectada</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/Incendios/PuntosZonaAfectada3</t>
+  </si>
+  <si>
+    <t>Áreas Protegidas</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/AP/ApZoom?id=WDPA-028</t>
+  </si>
+  <si>
+    <t>Filtro AP</t>
+  </si>
+  <si>
+    <t>Mapa de AP con zoom modificado</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/AP/Incendios?id=WDPA-028</t>
+  </si>
+  <si>
+    <t>Incendios en AP</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/AP/SIT?id=1&amp;id2=2</t>
+  </si>
+  <si>
+    <t>Sitios de interés turístico</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/AP/UsosSuelo?id=WDPA-028</t>
+  </si>
+  <si>
+    <t>Usos de suelo en AP</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/Biofisica/Biofisica?comuna=16101&amp;var=CIC</t>
+  </si>
+  <si>
+    <t>Biofísica</t>
+  </si>
+  <si>
+    <t>Variables biofísica malla de puntos</t>
+  </si>
+  <si>
+    <t>Mapas 3D</t>
+  </si>
+  <si>
+    <t>Mapa de ciudades por comuna</t>
+  </si>
+  <si>
+    <t>ID comuna + variable biofísica</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/Cesium/Cesium?id=348</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/Ciudades/Ciudades?id=1&amp;var=SA</t>
+  </si>
+  <si>
+    <t>ID ciudad + variable</t>
+  </si>
+  <si>
+    <t>Ciudades</t>
+  </si>
+  <si>
+    <t>Variables por ciudad</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/Ciudades/CiudadesComuna?id=16101&amp;var=SA</t>
+  </si>
+  <si>
+    <t>Variable por comuna</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/Ciudades/CiudadesVariables?id=1</t>
+  </si>
+  <si>
+    <t>ID ciudad</t>
+  </si>
+  <si>
+    <t>Ciudades, todas las variables</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/Combustible/Combustible</t>
+  </si>
+  <si>
+    <t>Combustibles</t>
+  </si>
+  <si>
+    <t>Combustibles por región</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/Combustible/CombustibleComuna?id=10101</t>
+  </si>
+  <si>
+    <t>Precio de combustobles por comuna</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/Combustible/Kerosene?id=9101</t>
+  </si>
+  <si>
+    <t>Precio de Kerosene por comuna</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/MOP/MOP</t>
+  </si>
+  <si>
+    <t>MOP Nacional</t>
+  </si>
+  <si>
+    <t>MOP</t>
+  </si>
+  <si>
+    <t>MOP comunal</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/MOP/comunaMOP?id=9103</t>
   </si>
 </sst>
 </file>
@@ -184,15 +331,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -200,12 +353,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -213,6 +381,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -237,8 +415,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A944119-A338-4F6C-8B6E-54D0F6A97E82}" name="Tabla1" displayName="Tabla1" ref="A1:D16" totalsRowShown="0">
-  <autoFilter ref="A1:D16" xr:uid="{3A944119-A338-4F6C-8B6E-54D0F6A97E82}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A944119-A338-4F6C-8B6E-54D0F6A97E82}" name="Tabla1" displayName="Tabla1" ref="A1:D19" totalsRowShown="0">
+  <autoFilter ref="A1:D19" xr:uid="{3A944119-A338-4F6C-8B6E-54D0F6A97E82}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{CD265949-D64B-4213-AAE6-63169155E3B7}" name="Tema"/>
     <tableColumn id="2" xr3:uid="{A41BA853-7D73-4EAA-8EB0-ED3EC17D38BC}" name="Subtema" dataDxfId="0"/>
@@ -546,18 +724,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4B730E-25BD-4A63-8435-9BCE2F859782}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -782,6 +960,272 @@
       </c>
       <c r="D16" s="1" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -802,10 +1246,25 @@
     <hyperlink ref="D14" r:id="rId13" xr:uid="{1B20B1BE-94E7-4D28-BAF1-3B22DEBA0368}"/>
     <hyperlink ref="D15" r:id="rId14" xr:uid="{0C2E64EB-3A6D-40E4-B78B-3B81FCFEB836}"/>
     <hyperlink ref="D16" r:id="rId15" xr:uid="{7DE6AAFB-7F75-48F7-9D01-4E214134B017}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{F3AA40F6-773C-44E8-8BAC-C2AB34DE3188}"/>
+    <hyperlink ref="D22" r:id="rId17" xr:uid="{E01BA2C3-DCE7-4A93-9888-90DA01FA83DB}"/>
+    <hyperlink ref="D23" r:id="rId18" xr:uid="{E19F917D-4860-43BF-81C2-473EB113EBE3}"/>
+    <hyperlink ref="D24" r:id="rId19" xr:uid="{D426ACBE-27B2-4246-ABBB-16FAB868E5F9}"/>
+    <hyperlink ref="D25" r:id="rId20" xr:uid="{D0BE4994-311D-4B72-B3E1-69950EDAD798}"/>
+    <hyperlink ref="D26" r:id="rId21" xr:uid="{E4273502-E16F-44B8-AFBF-A9F6B893889B}"/>
+    <hyperlink ref="D27" r:id="rId22" xr:uid="{AB5EAFAE-2B51-4A0A-8666-14B08425E770}"/>
+    <hyperlink ref="D28" r:id="rId23" xr:uid="{0DD9EF94-CE5B-4488-95B0-82C494A9ED9C}"/>
+    <hyperlink ref="D29" r:id="rId24" xr:uid="{A087F9E6-DD01-4D3D-B8F7-FB1E8C537C70}"/>
+    <hyperlink ref="D30" r:id="rId25" xr:uid="{66F9831C-8E69-4291-B8E4-1025352E976C}"/>
+    <hyperlink ref="D31" r:id="rId26" xr:uid="{73E6D2C7-2692-4EFA-9B35-717FDB18C90A}"/>
+    <hyperlink ref="D32" r:id="rId27" xr:uid="{131E0FD7-7BA4-4AA2-A9E4-EEC04DB433A4}"/>
+    <hyperlink ref="D33" r:id="rId28" xr:uid="{8F8C3D32-34F3-41BF-9A22-2C5D2BAF1427}"/>
+    <hyperlink ref="D34" r:id="rId29" xr:uid="{E07DBCB0-362A-4878-9C2A-9C5553BA3A29}"/>
+    <hyperlink ref="D35" r:id="rId30" xr:uid="{F14FCDCB-4D7E-4EA1-808B-0FE7E5252209}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>
--- a/mapas_leaflet/Leaflet.xlsx
+++ b/mapas_leaflet/Leaflet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hector\Documents\GitHub\mapa_insumos\mapas_leaflet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A04297-7439-4D09-80CB-D9300AEACCE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609C6FEA-E5AC-4524-9D3B-794A4F3B055E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{84BEEEB0-8A06-4289-BCAC-3826B378C274}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
   <si>
     <t>Tema</t>
   </si>
@@ -302,6 +302,15 @@
   </si>
   <si>
     <t>https://servidormapa.azurewebsites.net/MOP/comunaMOP?id=9103</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/Ciudades/CiudadesComunaEuclidean?var=SA&amp;id=10101</t>
+  </si>
+  <si>
+    <t>ID comuna + variable</t>
+  </si>
+  <si>
+    <t>Mapa ciudades comuna completa (Euclidean)</t>
   </si>
 </sst>
 </file>
@@ -345,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -368,12 +377,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -392,6 +412,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -724,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4B730E-25BD-4A63-8435-9BCE2F859782}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1226,6 +1247,20 @@
       </c>
       <c r="D35" s="1" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1261,10 +1296,11 @@
     <hyperlink ref="D33" r:id="rId28" xr:uid="{8F8C3D32-34F3-41BF-9A22-2C5D2BAF1427}"/>
     <hyperlink ref="D34" r:id="rId29" xr:uid="{E07DBCB0-362A-4878-9C2A-9C5553BA3A29}"/>
     <hyperlink ref="D35" r:id="rId30" xr:uid="{F14FCDCB-4D7E-4EA1-808B-0FE7E5252209}"/>
+    <hyperlink ref="D36" r:id="rId31" xr:uid="{697D16CE-F8E5-4C67-9452-119178F3D43C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
--- a/mapas_leaflet/Leaflet.xlsx
+++ b/mapas_leaflet/Leaflet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hector\Documents\GitHub\mapa_insumos\mapas_leaflet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609C6FEA-E5AC-4524-9D3B-794A4F3B055E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645F08C7-ADA7-4139-BFD6-28DF204679C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{84BEEEB0-8A06-4289-BCAC-3826B378C274}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>Tema</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>Mapa ciudades comuna completa (Euclidean)</t>
+  </si>
+  <si>
+    <t>Incendios en AP, últimos 7 días (Fuentes: J1, SUOIMI, MODIS)</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/AP/Incendios7d?id=WDPA-054</t>
   </si>
 </sst>
 </file>
@@ -393,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -413,6 +419,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -745,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4B730E-25BD-4A63-8435-9BCE2F859782}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,6 +1268,20 @@
       </c>
       <c r="D36" s="1" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1297,10 +1318,11 @@
     <hyperlink ref="D34" r:id="rId29" xr:uid="{E07DBCB0-362A-4878-9C2A-9C5553BA3A29}"/>
     <hyperlink ref="D35" r:id="rId30" xr:uid="{F14FCDCB-4D7E-4EA1-808B-0FE7E5252209}"/>
     <hyperlink ref="D36" r:id="rId31" xr:uid="{697D16CE-F8E5-4C67-9452-119178F3D43C}"/>
+    <hyperlink ref="D37" r:id="rId32" xr:uid="{4D7C3CE8-4DE8-472B-B097-C6D5BF278E5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
--- a/mapas_leaflet/Leaflet.xlsx
+++ b/mapas_leaflet/Leaflet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hector\Documents\GitHub\mapa_insumos\mapas_leaflet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645F08C7-ADA7-4139-BFD6-28DF204679C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1CB395-A303-433C-AF9D-97C99BA8F5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{84BEEEB0-8A06-4289-BCAC-3826B378C274}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="97">
   <si>
     <t>Tema</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t>https://servidormapa.azurewebsites.net/AP/Incendios7d?id=WDPA-054</t>
+  </si>
+  <si>
+    <t>Fuente: CONAF, mapa por temporadas con enbabezado</t>
+  </si>
+  <si>
+    <t>https://servidormapa.azurewebsites.net/Incendios/IncendiosMuni?id=8</t>
   </si>
 </sst>
 </file>
@@ -360,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -394,12 +400,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -420,6 +435,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -752,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4B730E-25BD-4A63-8435-9BCE2F859782}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,6 +1298,20 @@
       </c>
       <c r="D37" s="1" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1319,10 +1349,11 @@
     <hyperlink ref="D35" r:id="rId30" xr:uid="{F14FCDCB-4D7E-4EA1-808B-0FE7E5252209}"/>
     <hyperlink ref="D36" r:id="rId31" xr:uid="{697D16CE-F8E5-4C67-9452-119178F3D43C}"/>
     <hyperlink ref="D37" r:id="rId32" xr:uid="{4D7C3CE8-4DE8-472B-B097-C6D5BF278E5B}"/>
+    <hyperlink ref="D38" r:id="rId33" xr:uid="{6076B936-E2F5-4DBD-BDB0-AEF7058C332A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId34"/>
   </tableParts>
 </worksheet>
 </file>